--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D2DFD-7497-4E48-ADAD-61A3C2A6C279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66509367-26E6-49F8-9D4E-CFCDCE4C6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Luke" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="66">
   <si>
     <t>Email</t>
   </si>
@@ -227,6 +250,15 @@
   </si>
   <si>
     <t>meredith.palmer@outlook.com</t>
+  </si>
+  <si>
+    <t>Full Address</t>
+  </si>
+  <si>
+    <t>Unique Jobs</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -411,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -426,6 +458,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB134-41DE-47D5-9456-1C60C9867AFA}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,9 +1264,10 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1255,8 +1289,11 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1278,8 +1315,12 @@
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,E2,F2)</f>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1301,8 +1342,12 @@
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="0">_xlfn.TEXTJOIN(" ",TRUE,E3,F3)</f>
+        <v>203 Birch St Chicago, IL, 60601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1324,8 +1369,12 @@
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1347,8 +1396,12 @@
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1370,8 +1423,12 @@
       <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1393,8 +1450,12 @@
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -1416,8 +1477,12 @@
       <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1439,8 +1504,12 @@
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1462,8 +1531,12 @@
       <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1485,8 +1558,12 @@
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Los Angeles, CA, 90001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1508,8 +1585,12 @@
       <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St San Diego, CA, 92101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1531,8 +1612,12 @@
       <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>202 Birch St Chicago, IL, 60601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1554,8 +1639,12 @@
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1577,8 +1666,12 @@
       <c r="G15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1600,8 +1693,12 @@
       <c r="G16" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak St Chicago, IL, 60601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1623,8 +1720,12 @@
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>203 Birch St Chicago, IL, 60602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1646,8 +1747,12 @@
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1669,8 +1774,12 @@
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak St New York, NY, 10001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1692,8 +1801,12 @@
       <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1714,6 +1827,10 @@
       </c>
       <c r="G21" s="9" t="s">
         <v>10</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St New York, NY, 10001</v>
       </c>
     </row>
   </sheetData>
@@ -1723,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,12 +1852,539 @@
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>45505</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2:I6">_xlfn.UNIQUE(B2:B21)</f>
+        <v>Data Analyst</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45506</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Business Intelligence Analyst</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45508</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Data Engineer</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45509</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Data Scientist</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45511</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Machine Learning Engineer</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45512</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45514</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>45516</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45517</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45519</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45520</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>45522</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>45523</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45525</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11">
+        <v>45527</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11">
+        <v>45528</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11">
+        <v>45530</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11">
+        <v>45531</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11">
+        <v>45533</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13">
+        <v>45535</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1762,8 +2406,11 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1785,8 +2432,12 @@
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f>RIGHT(F2,9)</f>
+        <v>CA, 95101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +2460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1832,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1855,7 +2506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1878,7 +2529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1901,7 +2552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -1924,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1947,7 +2598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1970,7 +2621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1993,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2016,7 +2667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2039,7 +2690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -2062,7 +2713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2085,7 +2736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66509367-26E6-49F8-9D4E-CFCDCE4C6BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59310EC7-ECD5-4237-869F-013A58F0403D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Luke" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="67">
   <si>
     <t>Email</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -458,7 +461,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,18 +749,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.265625" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -779,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -802,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -825,7 +829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -848,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -871,7 +875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -894,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -917,7 +921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -940,7 +944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -963,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -986,7 +990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1255,19 +1259,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.265625" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1846,19 +1850,19 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>Data Analyst</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>Business Intelligence Analyst</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>Data Engineer</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>Data Scientist</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>Machine Learning Engineer</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -2061,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2153,7 +2157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -2367,24 +2371,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -2436,8 +2440,20 @@
         <f>RIGHT(F2,9)</f>
         <v>CA, 95101</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>FIND(", ", F2)+1</f>
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <f>FIND(", ", F2, J2)</f>
+        <v>13</v>
+      </c>
+      <c r="L2" t="str">
+        <f>MID(F2,J2+1,K2-J2-1)</f>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2459,8 +2475,17 @@
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="15">
+        <v>10</v>
+      </c>
+      <c r="K3" s="15">
+        <v>13</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -2483,7 +2508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2506,7 +2531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2529,7 +2554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2552,7 +2577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -2575,7 +2600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2598,7 +2623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2621,7 +2646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -2644,7 +2669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2667,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2690,7 +2715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -2713,7 +2738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2736,7 +2761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2759,7 +2784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -2782,7 +2807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2805,7 +2830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2828,7 +2853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2851,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59310EC7-ECD5-4237-869F-013A58F0403D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB671057-25FB-4EAF-8FDF-7019075A3BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Luke" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="70">
   <si>
     <t>Email</t>
   </si>
@@ -258,10 +258,19 @@
     <t>Unique Jobs</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>Find and MID (State)</t>
+  </si>
+  <si>
+    <t>Skills?</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
 </sst>
 </file>
@@ -285,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -462,7 +477,15 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,18 +772,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -783,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -806,7 +829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -829,7 +852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -852,7 +875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -875,7 +898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -898,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -921,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -944,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -967,7 +990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -990,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1013,7 +1036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1036,7 +1059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1059,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1082,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1105,7 +1128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1128,7 +1151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1151,7 +1174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1174,7 +1197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1197,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1220,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1256,22 +1279,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1324,7 +1347,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1351,7 +1374,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1378,7 +1401,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1405,7 +1428,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1455,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1482,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -1486,7 +1509,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1513,7 +1536,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1540,7 +1563,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1567,7 +1590,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1617,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1621,7 +1644,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1648,7 +1671,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1675,7 +1698,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1702,7 +1725,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1729,7 +1752,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1756,7 +1779,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1783,7 +1806,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1810,7 +1833,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1844,25 +1867,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1887,8 +1914,22 @@
       <c r="I1" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1914,8 +1955,31 @@
         <f t="array" ref="I2:I6">_xlfn.UNIQUE(B2:B21)</f>
         <v>Data Analyst</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:L2">_xlfn.TEXTSPLIT(A2," ")</f>
+        <v>Pam</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Beesly</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2:R2">_xlfn.TEXTSPLIT(G2,",")</f>
+        <v>Kafka</v>
+      </c>
+      <c r="O2" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="P2" t="str">
+        <v xml:space="preserve"> Spark</v>
+      </c>
+      <c r="Q2" t="str">
+        <v xml:space="preserve"> Python</v>
+      </c>
+      <c r="R2" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1940,8 +2004,31 @@
       <c r="I3" t="str">
         <v>Business Intelligence Analyst</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K3" t="str" cm="1">
+        <f t="array" ref="K3:L3">_xlfn.TEXTSPLIT(A3," ")</f>
+        <v>Michael</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3:R3">_xlfn.TEXTSPLIT(G3,",")</f>
+        <v>Power BI</v>
+      </c>
+      <c r="O3" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="P3" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="Q3" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="R3" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1966,8 +2053,28 @@
       <c r="I4" t="str">
         <v>Data Engineer</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4:L4">_xlfn.TEXTSPLIT(A4," ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4:Q4">_xlfn.TEXTSPLIT(G4,",")</f>
+        <v>Azure</v>
+      </c>
+      <c r="O4" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="P4" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="Q4" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1992,8 +2099,31 @@
       <c r="I5" t="str">
         <v>Data Scientist</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5:L5">_xlfn.TEXTSPLIT(A5," ")</f>
+        <v>Pam</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Beesly</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5:R5">_xlfn.TEXTSPLIT(G5,",")</f>
+        <v>Kafka</v>
+      </c>
+      <c r="O5" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="P5" t="str">
+        <v xml:space="preserve"> Spark</v>
+      </c>
+      <c r="Q5" t="str">
+        <v xml:space="preserve"> Python</v>
+      </c>
+      <c r="R5" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2018,8 +2148,25 @@
       <c r="I6" t="str">
         <v>Machine Learning Engineer</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6:L6">_xlfn.TEXTSPLIT(A6," ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6:P6">_xlfn.TEXTSPLIT(G6,",")</f>
+        <v>DataBricks</v>
+      </c>
+      <c r="O6" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="P6" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2041,8 +2188,25 @@
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7:L7">_xlfn.TEXTSPLIT(A7," ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7:P7">_xlfn.TEXTSPLIT(G7,",")</f>
+        <v>Snowflake</v>
+      </c>
+      <c r="O7" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="P7" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -2064,8 +2228,28 @@
       <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8:L8">_xlfn.TEXTSPLIT(A8," ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8:Q8">_xlfn.TEXTSPLIT(G8,",")</f>
+        <v>Azure</v>
+      </c>
+      <c r="O8" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="P8" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="Q8" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2087,8 +2271,25 @@
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9:L9">_xlfn.TEXTSPLIT(A9," ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9:P9">_xlfn.TEXTSPLIT(G9,",")</f>
+        <v>Snowflake</v>
+      </c>
+      <c r="O9" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="P9" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2110,8 +2311,28 @@
       <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10:L10">_xlfn.TEXTSPLIT(A10," ")</f>
+        <v>Stanley</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10:Q10">_xlfn.TEXTSPLIT(G10,",")</f>
+        <v>Scala</v>
+      </c>
+      <c r="O10" t="str">
+        <v xml:space="preserve"> Azure</v>
+      </c>
+      <c r="P10" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="Q10" t="str">
+        <v xml:space="preserve"> Kafka</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -2133,8 +2354,25 @@
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11:L11">_xlfn.TEXTSPLIT(A11," ")</f>
+        <v>Angela</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11:P11">_xlfn.TEXTSPLIT(G11,",")</f>
+        <v>Snowflake</v>
+      </c>
+      <c r="O11" t="str">
+        <v xml:space="preserve"> Excel</v>
+      </c>
+      <c r="P11" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2156,8 +2394,25 @@
       <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12:L12">_xlfn.TEXTSPLIT(A12," ")</f>
+        <v>Dwight</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Schrute</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12:P12">_xlfn.TEXTSPLIT(G12,",")</f>
+        <v>Excel</v>
+      </c>
+      <c r="O12" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+      <c r="P12" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2179,8 +2434,31 @@
       <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13:L13">_xlfn.TEXTSPLIT(A13," ")</f>
+        <v>Oscar</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Martinez</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13:R13">_xlfn.TEXTSPLIT(G13,",")</f>
+        <v>Scala</v>
+      </c>
+      <c r="O13" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="P13" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="Q13" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+      <c r="R13" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -2202,8 +2480,25 @@
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14:L14">_xlfn.TEXTSPLIT(A14," ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14:P14">_xlfn.TEXTSPLIT(G14,",")</f>
+        <v>Snowflake</v>
+      </c>
+      <c r="O14" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="P14" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2225,8 +2520,25 @@
       <c r="G15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K15" t="str" cm="1">
+        <f t="array" ref="K15:L15">_xlfn.TEXTSPLIT(A15," ")</f>
+        <v>Phyllis</v>
+      </c>
+      <c r="L15" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15:P15">_xlfn.TEXTSPLIT(G15,",")</f>
+        <v>Java</v>
+      </c>
+      <c r="O15" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+      <c r="P15" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2248,8 +2560,25 @@
       <c r="G16" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K16" t="str" cm="1">
+        <f t="array" ref="K16:L16">_xlfn.TEXTSPLIT(A16," ")</f>
+        <v>Meredith</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Palmer</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16:P16">_xlfn.TEXTSPLIT(G16,",")</f>
+        <v>DataBricks</v>
+      </c>
+      <c r="O16" t="str">
+        <v xml:space="preserve"> Azure</v>
+      </c>
+      <c r="P16" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -2271,8 +2600,31 @@
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K17" t="str" cm="1">
+        <f t="array" ref="K17:L17">_xlfn.TEXTSPLIT(A17," ")</f>
+        <v>Michael</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17:R17">_xlfn.TEXTSPLIT(G17,",")</f>
+        <v>Power BI</v>
+      </c>
+      <c r="O17" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="P17" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="Q17" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="R17" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2294,8 +2646,25 @@
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K18" t="str" cm="1">
+        <f t="array" ref="K18:L18">_xlfn.TEXTSPLIT(A18," ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18:P18">_xlfn.TEXTSPLIT(G18,",")</f>
+        <v>DataBricks</v>
+      </c>
+      <c r="O18" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="P18" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2317,8 +2686,31 @@
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K19" t="str" cm="1">
+        <f t="array" ref="K19:L19">_xlfn.TEXTSPLIT(A19," ")</f>
+        <v>Kelly</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Kapoor</v>
+      </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" ref="N19:R19">_xlfn.TEXTSPLIT(G19,",")</f>
+        <v>Snowflake</v>
+      </c>
+      <c r="O19" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+      <c r="P19" t="str">
+        <v xml:space="preserve"> Tableau</v>
+      </c>
+      <c r="Q19" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="R19" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2340,8 +2732,25 @@
       <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K20" t="str" cm="1">
+        <f t="array" ref="K20:L20">_xlfn.TEXTSPLIT(A20," ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" ref="N20:P20">_xlfn.TEXTSPLIT(G20,",")</f>
+        <v>DataBricks</v>
+      </c>
+      <c r="O20" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="P20" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -2363,32 +2772,52 @@
       <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="K21" t="str" cm="1">
+        <f t="array" ref="K21:L21">_xlfn.TEXTSPLIT(A21," ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="L21" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="N21" t="str" cm="1">
+        <f t="array" ref="N21:P21">_xlfn.TEXTSPLIT(G21,",")</f>
+        <v>DataBricks</v>
+      </c>
+      <c r="O21" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="P21" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.06640625" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2410,11 +2839,13 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -2436,24 +2867,20 @@
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="str">
-        <f>RIGHT(F2,9)</f>
-        <v>CA, 95101</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="15">
         <f>FIND(", ", F2)+1</f>
         <v>10</v>
       </c>
-      <c r="K2">
-        <f>FIND(", ", F2, J2)</f>
+      <c r="J2" s="15">
+        <f>FIND(", ", F2, I2)</f>
         <v>13</v>
       </c>
-      <c r="L2" t="str">
-        <f>MID(F2,J2+1,K2-J2-1)</f>
+      <c r="K2" s="15" t="str">
+        <f>MID(F2,I2+1,J2-I2-1)</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2475,17 +2902,17 @@
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="15">
+      <c r="I3" s="16">
         <v>10</v>
       </c>
-      <c r="K3" s="15">
+      <c r="J3" s="16">
         <v>13</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K3" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -2508,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2531,7 +2958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2554,7 +2981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2577,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -2600,7 +3027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2623,7 +3050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2646,7 +3073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -2669,7 +3096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2692,7 +3119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2715,7 +3142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -2738,7 +3165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2761,7 +3188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2784,7 +3211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -2807,7 +3234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2830,7 +3257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2853,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2876,7 +3303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -2900,6 +3327,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB671057-25FB-4EAF-8FDF-7019075A3BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924303F-679E-478A-B33F-9830BDB72331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1070" yWindow="0" windowWidth="18130" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Luke" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId4"/>
+    <sheet name="Skills" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="74">
   <si>
     <t>Email</t>
   </si>
@@ -271,6 +272,18 @@
   </si>
   <si>
     <t>Last Name</t>
+  </si>
+  <si>
+    <t>=TEXTSPLIT(A3, ", ")</t>
+  </si>
+  <si>
+    <t>=TEXTJOIN(", ", TRUE, Original!G2:G21)</t>
+  </si>
+  <si>
+    <t>=UNIQUE(TRANSPOSE(6:6))</t>
+  </si>
+  <si>
+    <t>=COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A9&amp;"*")</t>
   </si>
 </sst>
 </file>
@@ -479,13 +492,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,6 +512,963 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skill Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Skills!$A$9:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Kafka</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataBricks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Power BI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Airflow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hadoop</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Azure</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SQL</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Snowflake</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Excel</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tableau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Skills!$B$9:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5615-4F66-AACE-621ED310D9EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="171951696"/>
+        <c:axId val="171961296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171951696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171961296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171961296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171951696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10477</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3BD3A8-9A7A-7E78-0EC6-8619115F626F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,22 +1736,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="5" max="5" width="10.15625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -806,7 +1774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -829,7 +1797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -852,7 +1820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -875,7 +1843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -898,7 +1866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -921,7 +1889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -944,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -967,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -990,7 +1958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1013,7 +1981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1036,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1059,7 +2027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1082,7 +2050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1105,7 +2073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1128,7 +2096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1151,7 +2119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +2142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1197,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1220,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1243,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1278,23 +2246,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB134-41DE-47D5-9456-1C60C9867AFA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="5" max="5" width="10.15625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +2288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +2315,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1374,7 +2342,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1401,7 +2369,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1428,7 +2396,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1455,7 +2423,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1482,7 +2450,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -1509,7 +2477,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +2504,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1563,7 +2531,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1590,7 +2558,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1617,7 +2585,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1644,7 +2612,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1671,7 +2639,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1698,7 +2666,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1725,7 +2693,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1752,7 +2720,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1779,7 +2747,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1806,7 +2774,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1833,7 +2801,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1869,27 +2837,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="5" max="5" width="11.83984375" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.41796875" customWidth="1"/>
+    <col min="11" max="11" width="11.68359375" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1914,22 +2882,22 @@
       <c r="I1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="14" t="s">
         <v>68</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1979,7 +2947,7 @@
         <v xml:space="preserve"> GCP</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2028,7 +2996,7 @@
         <v xml:space="preserve"> R</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -2074,7 +3042,7 @@
         <v xml:space="preserve"> DataBricks</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2123,7 +3091,7 @@
         <v xml:space="preserve"> GCP</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2166,7 +3134,7 @@
         <v xml:space="preserve"> Java</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2206,7 +3174,7 @@
         <v xml:space="preserve"> DataBricks</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -2249,7 +3217,7 @@
         <v xml:space="preserve"> DataBricks</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2289,7 +3257,7 @@
         <v xml:space="preserve"> DataBricks</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2332,7 +3300,7 @@
         <v xml:space="preserve"> Kafka</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -2372,7 +3340,7 @@
         <v xml:space="preserve"> Scala</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2412,7 +3380,7 @@
         <v xml:space="preserve"> R</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2458,7 +3426,7 @@
         <v xml:space="preserve"> SQL</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -2498,7 +3466,7 @@
         <v xml:space="preserve"> DataBricks</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2538,7 +3506,7 @@
         <v xml:space="preserve"> R</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2578,7 +3546,7 @@
         <v xml:space="preserve"> Scala</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -2624,7 +3592,7 @@
         <v xml:space="preserve"> R</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2664,7 +3632,7 @@
         <v xml:space="preserve"> Java</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2710,7 +3678,7 @@
         <v xml:space="preserve"> SQL</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2750,7 +3718,7 @@
         <v xml:space="preserve"> Java</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -2802,22 +3770,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="5" max="5" width="11.83984375" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2839,13 +3807,13 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -2880,7 +3848,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2912,7 +3880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -2935,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2958,7 +3926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2981,7 +3949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -3004,7 +3972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -3027,7 +3995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3050,7 +4018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +4041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -3096,7 +4064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -3119,7 +4087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -3142,7 +4110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -3165,7 +4133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -3188,7 +4156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -3211,7 +4179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -3234,7 +4202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3257,7 +4225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -3280,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -3303,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -3331,6 +4299,431 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
+  <dimension ref="A2:BW25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.47265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, Original_Luke!G2:G21)</f>
+        <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="str" cm="1">
+        <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3, ", ")</f>
+        <v>Kafka</v>
+      </c>
+      <c r="B6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Spark</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Python</v>
+      </c>
+      <c r="E6" t="str">
+        <v>GCP</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="G6" t="str">
+        <v>GCP</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Airflow</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="J6" t="str">
+        <v>R</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Java</v>
+      </c>
+      <c r="M6" t="str">
+        <v>SQL</v>
+      </c>
+      <c r="N6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Kafka</v>
+      </c>
+      <c r="P6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>Spark</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Python</v>
+      </c>
+      <c r="S6" t="str">
+        <v>GCP</v>
+      </c>
+      <c r="T6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="U6" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="V6" t="str">
+        <v>Java</v>
+      </c>
+      <c r="W6" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="X6" t="str">
+        <v>Airflow</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>Java</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>SQL</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="AD6" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="AE6" t="str">
+        <v>Airflow</v>
+      </c>
+      <c r="AF6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="AG6" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="AH6" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="AI6" t="str">
+        <v>R</v>
+      </c>
+      <c r="AJ6" t="str">
+        <v>Kafka</v>
+      </c>
+      <c r="AK6" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="AL6" t="str">
+        <v>Excel</v>
+      </c>
+      <c r="AM6" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="AN6" t="str">
+        <v>Excel</v>
+      </c>
+      <c r="AO6" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="AP6" t="str">
+        <v>R</v>
+      </c>
+      <c r="AQ6" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="AR6" t="str">
+        <v>R</v>
+      </c>
+      <c r="AS6" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="AT6" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="AU6" t="str">
+        <v>SQL</v>
+      </c>
+      <c r="AV6" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="AW6" t="str">
+        <v>Airflow</v>
+      </c>
+      <c r="AX6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="AY6" t="str">
+        <v>Java</v>
+      </c>
+      <c r="AZ6" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="BA6" t="str">
+        <v>R</v>
+      </c>
+      <c r="BB6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="BC6" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="BD6" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="BE6" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="BF6" t="str">
+        <v>GCP</v>
+      </c>
+      <c r="BG6" t="str">
+        <v>Airflow</v>
+      </c>
+      <c r="BH6" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="BI6" t="str">
+        <v>R</v>
+      </c>
+      <c r="BJ6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="BK6" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="BL6" t="str">
+        <v>Java</v>
+      </c>
+      <c r="BM6" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="BN6" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="BO6" t="str">
+        <v>Tableau</v>
+      </c>
+      <c r="BP6" t="str">
+        <v>Airflow</v>
+      </c>
+      <c r="BQ6" t="str">
+        <v>SQL</v>
+      </c>
+      <c r="BR6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="BS6" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="BT6" t="str">
+        <v>Java</v>
+      </c>
+      <c r="BU6" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="BV6" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="BW6" t="str">
+        <v>Java</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="str" cm="1">
+        <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
+        <v>Kafka</v>
+      </c>
+      <c r="B9" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A9&amp;"*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="B10" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A10&amp;"*")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="str">
+        <v>Spark</v>
+      </c>
+      <c r="B11" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A11&amp;"*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="str">
+        <v>Python</v>
+      </c>
+      <c r="B12" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A12&amp;"*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="str">
+        <v>GCP</v>
+      </c>
+      <c r="B13" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A13&amp;"*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="B14" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A14&amp;"*")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="str">
+        <v>Airflow</v>
+      </c>
+      <c r="B15" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A15&amp;"*")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="str">
+        <v>Hadoop</v>
+      </c>
+      <c r="B16" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A16&amp;"*")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="str">
+        <v>R</v>
+      </c>
+      <c r="B17" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A17&amp;"*")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="B18" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A18&amp;"*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B19" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A19&amp;"*")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="str">
+        <v>SQL</v>
+      </c>
+      <c r="B20" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A20&amp;"*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="B21" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A21&amp;"*")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="B22" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A22&amp;"*")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="str">
+        <v>Excel</v>
+      </c>
+      <c r="B23" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A23&amp;"*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="str">
+        <v>Tableau</v>
+      </c>
+      <c r="B24" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A24&amp;"*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A25&amp;"*")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924303F-679E-478A-B33F-9830BDB72331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EE17C-6C3C-43D6-BF92-ED8D4412584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1070" yWindow="0" windowWidth="18130" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original_Luke" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId4"/>
+    <sheet name="Original" sheetId="8" r:id="rId1"/>
+    <sheet name="Text Combination" sheetId="9" r:id="rId2"/>
+    <sheet name="Text Extraction" sheetId="10" r:id="rId3"/>
+    <sheet name="Text Search" sheetId="11" r:id="rId4"/>
     <sheet name="Skills" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -259,15 +259,9 @@
     <t>Unique Jobs</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Find and MID (State)</t>
   </si>
   <si>
-    <t>Skills?</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -284,13 +278,82 @@
   </si>
   <si>
     <t>=COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A9&amp;"*")</t>
+  </si>
+  <si>
+    <t>Applicant ID</t>
+  </si>
+  <si>
+    <t>Check Applicant ID</t>
+  </si>
+  <si>
+    <t>AID0123549</t>
+  </si>
+  <si>
+    <t>AID0123548</t>
+  </si>
+  <si>
+    <t>AID0123550</t>
+  </si>
+  <si>
+    <t>AID0123551</t>
+  </si>
+  <si>
+    <t>AID0123552</t>
+  </si>
+  <si>
+    <t>AID0123553</t>
+  </si>
+  <si>
+    <t>AID0123554</t>
+  </si>
+  <si>
+    <t>AID0123555</t>
+  </si>
+  <si>
+    <t>AID0123556</t>
+  </si>
+  <si>
+    <t>AID0123557</t>
+  </si>
+  <si>
+    <t>AID0123558</t>
+  </si>
+  <si>
+    <t>AID0123559</t>
+  </si>
+  <si>
+    <t>AID0123560</t>
+  </si>
+  <si>
+    <t>AID0123561</t>
+  </si>
+  <si>
+    <t>AID0123562</t>
+  </si>
+  <si>
+    <t>AID0123563</t>
+  </si>
+  <si>
+    <t>AID0123564</t>
+  </si>
+  <si>
+    <t>AID0123565</t>
+  </si>
+  <si>
+    <t>AID0123566</t>
+  </si>
+  <si>
+    <t>AID0123567</t>
+  </si>
+  <si>
+    <t>Applicant ID (Short)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +369,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,14 +389,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,21 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -474,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -484,19 +532,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,1096 +1783,1246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="10">
         <v>45505</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="10">
         <v>45506</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="10">
         <v>45508</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="10">
         <v>45509</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="D6" s="10">
         <v>45511</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="10">
         <v>45512</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="10">
         <v>45514</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D9" s="10">
         <v>45516</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D10" s="10">
         <v>45517</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11">
+      <c r="D11" s="10">
         <v>45519</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11">
+      <c r="D12" s="10">
         <v>45520</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="D13" s="10">
         <v>45522</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="D14" s="10">
         <v>45523</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="10">
         <v>45525</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="D16" s="10">
         <v>45527</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11">
+      <c r="D17" s="10">
         <v>45528</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="11">
+      <c r="D18" s="10">
         <v>45530</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11">
+      <c r="D19" s="10">
         <v>45531</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11">
+      <c r="D20" s="10">
         <v>45533</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13">
+      <c r="D21" s="12">
         <v>45535</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
-    <sortCondition ref="C1:C22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H22">
+    <sortCondition ref="D1:D22"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB134-41DE-47D5-9456-1C60C9867AFA}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="10">
         <v>45505</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,E2,F2)</f>
+      <c r="I2" s="17"/>
+      <c r="J2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,F2,G2)</f>
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="10">
         <v>45506</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="0">_xlfn.TEXTJOIN(" ",TRUE,E3,F3)</f>
+      <c r="I3" s="17"/>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="0">_xlfn.TEXTJOIN(" ",TRUE,F3,G3)</f>
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="10">
         <v>45508</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="17"/>
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="10">
         <v>45509</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="17"/>
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="D6" s="10">
         <v>45511</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="17"/>
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="10">
         <v>45512</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="17"/>
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="10">
         <v>45514</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="17"/>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D9" s="10">
         <v>45516</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="17"/>
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D10" s="10">
         <v>45517</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="17"/>
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11">
+      <c r="D11" s="10">
         <v>45519</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="17"/>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11">
+      <c r="D12" s="10">
         <v>45520</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="17"/>
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="D13" s="10">
         <v>45522</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="17"/>
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="D14" s="10">
         <v>45523</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="17"/>
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="10">
         <v>45525</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="17"/>
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="D16" s="10">
         <v>45527</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="17"/>
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11">
+      <c r="D17" s="10">
         <v>45528</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="17"/>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="11">
+      <c r="D18" s="10">
         <v>45530</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="17"/>
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11">
+      <c r="D19" s="10">
         <v>45531</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="17"/>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11">
+      <c r="D20" s="10">
         <v>45533</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="17"/>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13">
+      <c r="D21" s="12">
         <v>45535</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="17"/>
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St New York, NY, 10001</v>
       </c>
@@ -2835,1468 +3034,1748 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T6"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="G36" sqref="G35:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.26171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.41796875" customWidth="1"/>
-    <col min="11" max="11" width="11.68359375" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="14" max="14" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="10">
         <v>45505</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2:I6">_xlfn.UNIQUE(B2:B21)</f>
+        <f t="array" ref="I2:J2">_xlfn.TEXTSPLIT(B2," ")</f>
+        <v>Pam</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Beesly</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L6">_xlfn.UNIQUE(C2:C21)</f>
         <v>Data Analyst</v>
       </c>
-      <c r="K2" t="str" cm="1">
-        <f t="array" ref="K2:L2">_xlfn.TEXTSPLIT(A2," ")</f>
+      <c r="M2" t="b">
+        <f>IF(LEN(A2)=10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <f>RIGHT(A2,7)</f>
+        <v>0123548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45506</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3:J3">_xlfn.TEXTSPLIT(B3," ")</f>
+        <v>Michael</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Business Intelligence Analyst</v>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" ref="M3:M21" si="0">IF(LEN(A3)=10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N21" si="1">RIGHT(A3,7)</f>
+        <v>0123549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10">
+        <v>45508</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4:J4">_xlfn.TEXTSPLIT(B4," ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Data Engineer</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>0123550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="str" cm="1">
+        <f t="array" ref="I5:J5">_xlfn.TEXTSPLIT(B5," ")</f>
         <v>Pam</v>
       </c>
-      <c r="L2" t="str">
+      <c r="J5" t="str">
         <v>Beesly</v>
       </c>
-      <c r="N2" t="str" cm="1">
-        <f t="array" ref="N2:R2">_xlfn.TEXTSPLIT(G2,",")</f>
-        <v>Kafka</v>
-      </c>
-      <c r="O2" t="str">
-        <v xml:space="preserve"> DataBricks</v>
-      </c>
-      <c r="P2" t="str">
-        <v xml:space="preserve"> Spark</v>
-      </c>
-      <c r="Q2" t="str">
-        <v xml:space="preserve"> Python</v>
-      </c>
-      <c r="R2" t="str">
-        <v xml:space="preserve"> GCP</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="L5" t="str">
+        <v>Data Scientist</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>0123551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45511</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="str" cm="1">
+        <f t="array" ref="I6:J6">_xlfn.TEXTSPLIT(B6," ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Machine Learning Engineer</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>0123552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45512</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7:J7">_xlfn.TEXTSPLIT(B7," ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>0123553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45514</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8:J8">_xlfn.TEXTSPLIT(B8," ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>0123554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45516</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9:J9">_xlfn.TEXTSPLIT(B9," ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>0123555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>45517</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10:J10">_xlfn.TEXTSPLIT(B10," ")</f>
+        <v>Stanley</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>0123556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45519</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="str" cm="1">
+        <f t="array" ref="I11:J11">_xlfn.TEXTSPLIT(B11," ")</f>
+        <v>Angela</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>0123557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>45520</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12:J12">_xlfn.TEXTSPLIT(B12," ")</f>
+        <v>Dwight</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Schrute</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>0123558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>45522</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="str" cm="1">
+        <f t="array" ref="I13:J13">_xlfn.TEXTSPLIT(B13," ")</f>
+        <v>Oscar</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Martinez</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>0123559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
+        <v>45523</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14:J14">_xlfn.TEXTSPLIT(B14," ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>0123560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10">
+        <v>45525</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15:J15">_xlfn.TEXTSPLIT(B15," ")</f>
+        <v>Phyllis</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>0123561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10">
+        <v>45527</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" ref="I16:J16">_xlfn.TEXTSPLIT(B16," ")</f>
+        <v>Meredith</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Palmer</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>0123562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11">
-        <v>45506</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45528</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="str">
-        <v>Business Intelligence Analyst</v>
-      </c>
-      <c r="K3" t="str" cm="1">
-        <f t="array" ref="K3:L3">_xlfn.TEXTSPLIT(A3," ")</f>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17:J17">_xlfn.TEXTSPLIT(B17," ")</f>
         <v>Michael</v>
       </c>
-      <c r="L3" t="str">
+      <c r="J17" t="str">
         <v>Scott</v>
       </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3:R3">_xlfn.TEXTSPLIT(G3,",")</f>
-        <v>Power BI</v>
-      </c>
-      <c r="O3" t="str">
-        <v xml:space="preserve"> GCP</v>
-      </c>
-      <c r="P3" t="str">
-        <v xml:space="preserve"> Airflow</v>
-      </c>
-      <c r="Q3" t="str">
-        <v xml:space="preserve"> Hadoop</v>
-      </c>
-      <c r="R3" t="str">
-        <v xml:space="preserve"> R</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="M17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>0123563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
-        <v>45508</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Data Engineer</v>
-      </c>
-      <c r="K4" t="str" cm="1">
-        <f t="array" ref="K4:L4">_xlfn.TEXTSPLIT(A4," ")</f>
-        <v>Kevin</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Malone</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4:Q4">_xlfn.TEXTSPLIT(G4,",")</f>
-        <v>Azure</v>
-      </c>
-      <c r="O4" t="str">
-        <v xml:space="preserve"> Java</v>
-      </c>
-      <c r="P4" t="str">
-        <v xml:space="preserve"> SQL</v>
-      </c>
-      <c r="Q4" t="str">
-        <v xml:space="preserve"> DataBricks</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
-        <v>45509</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Data Scientist</v>
-      </c>
-      <c r="K5" t="str" cm="1">
-        <f t="array" ref="K5:L5">_xlfn.TEXTSPLIT(A5," ")</f>
-        <v>Pam</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Beesly</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5:R5">_xlfn.TEXTSPLIT(G5,",")</f>
-        <v>Kafka</v>
-      </c>
-      <c r="O5" t="str">
-        <v xml:space="preserve"> DataBricks</v>
-      </c>
-      <c r="P5" t="str">
-        <v xml:space="preserve"> Spark</v>
-      </c>
-      <c r="Q5" t="str">
-        <v xml:space="preserve"> Python</v>
-      </c>
-      <c r="R5" t="str">
-        <v xml:space="preserve"> GCP</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="D18" s="10">
+        <v>45530</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" ref="I18:J18">_xlfn.TEXTSPLIT(B18," ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>0123564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="10">
+        <v>45531</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19:J19">_xlfn.TEXTSPLIT(B19," ")</f>
+        <v>Kelly</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Kapoor</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>0123565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11">
-        <v>45511</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10">
+        <v>45533</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="str">
-        <v>Machine Learning Engineer</v>
-      </c>
-      <c r="K6" t="str" cm="1">
-        <f t="array" ref="K6:L6">_xlfn.TEXTSPLIT(A6," ")</f>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20:J20">_xlfn.TEXTSPLIT(B20," ")</f>
         <v>Jim</v>
       </c>
-      <c r="L6" t="str">
+      <c r="J20" t="str">
         <v>Halpert</v>
       </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6:P6">_xlfn.TEXTSPLIT(G6,",")</f>
-        <v>DataBricks</v>
-      </c>
-      <c r="O6" t="str">
-        <v xml:space="preserve"> Hadoop</v>
-      </c>
-      <c r="P6" t="str">
-        <v xml:space="preserve"> Java</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="M20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>0123566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
-        <v>45512</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="str" cm="1">
-        <f t="array" ref="K7:L7">_xlfn.TEXTSPLIT(A7," ")</f>
-        <v>Ryan</v>
-      </c>
-      <c r="L7" t="str">
-        <v>Howard</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7:P7">_xlfn.TEXTSPLIT(G7,",")</f>
-        <v>Snowflake</v>
-      </c>
-      <c r="O7" t="str">
-        <v xml:space="preserve"> Airflow</v>
-      </c>
-      <c r="P7" t="str">
-        <v xml:space="preserve"> DataBricks</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
-        <v>45514</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" t="str" cm="1">
-        <f t="array" ref="K8:L8">_xlfn.TEXTSPLIT(A8," ")</f>
-        <v>Kevin</v>
-      </c>
-      <c r="L8" t="str">
-        <v>Malone</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8:Q8">_xlfn.TEXTSPLIT(G8,",")</f>
-        <v>Azure</v>
-      </c>
-      <c r="O8" t="str">
-        <v xml:space="preserve"> Java</v>
-      </c>
-      <c r="P8" t="str">
-        <v xml:space="preserve"> SQL</v>
-      </c>
-      <c r="Q8" t="str">
-        <v xml:space="preserve"> DataBricks</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D21" s="12">
+        <v>45535</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="str" cm="1">
+        <f t="array" ref="I21:J21">_xlfn.TEXTSPLIT(B21," ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="11">
-        <v>45516</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="str" cm="1">
-        <f t="array" ref="K9:L9">_xlfn.TEXTSPLIT(A9," ")</f>
-        <v>Ryan</v>
-      </c>
-      <c r="L9" t="str">
-        <v>Howard</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9:P9">_xlfn.TEXTSPLIT(G9,",")</f>
-        <v>Snowflake</v>
-      </c>
-      <c r="O9" t="str">
-        <v xml:space="preserve"> Airflow</v>
-      </c>
-      <c r="P9" t="str">
-        <v xml:space="preserve"> DataBricks</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11">
-        <v>45517</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="str" cm="1">
-        <f t="array" ref="K10:L10">_xlfn.TEXTSPLIT(A10," ")</f>
-        <v>Stanley</v>
-      </c>
-      <c r="L10" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10:Q10">_xlfn.TEXTSPLIT(G10,",")</f>
-        <v>Scala</v>
-      </c>
-      <c r="O10" t="str">
-        <v xml:space="preserve"> Azure</v>
-      </c>
-      <c r="P10" t="str">
-        <v xml:space="preserve"> R</v>
-      </c>
-      <c r="Q10" t="str">
-        <v xml:space="preserve"> Kafka</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11">
-        <v>45519</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="str" cm="1">
-        <f t="array" ref="K11:L11">_xlfn.TEXTSPLIT(A11," ")</f>
-        <v>Angela</v>
-      </c>
-      <c r="L11" t="str">
-        <v>Martin</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11:P11">_xlfn.TEXTSPLIT(G11,",")</f>
-        <v>Snowflake</v>
-      </c>
-      <c r="O11" t="str">
-        <v xml:space="preserve"> Excel</v>
-      </c>
-      <c r="P11" t="str">
-        <v xml:space="preserve"> Scala</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11">
-        <v>45520</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="str" cm="1">
-        <f t="array" ref="K12:L12">_xlfn.TEXTSPLIT(A12," ")</f>
-        <v>Dwight</v>
-      </c>
-      <c r="L12" t="str">
-        <v>Schrute</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12:P12">_xlfn.TEXTSPLIT(G12,",")</f>
-        <v>Excel</v>
-      </c>
-      <c r="O12" t="str">
-        <v xml:space="preserve"> Power BI</v>
-      </c>
-      <c r="P12" t="str">
-        <v xml:space="preserve"> R</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11">
-        <v>45522</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="str" cm="1">
-        <f t="array" ref="K13:L13">_xlfn.TEXTSPLIT(A13," ")</f>
-        <v>Oscar</v>
-      </c>
-      <c r="L13" t="str">
-        <v>Martinez</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13:R13">_xlfn.TEXTSPLIT(G13,",")</f>
-        <v>Scala</v>
-      </c>
-      <c r="O13" t="str">
-        <v xml:space="preserve"> R</v>
-      </c>
-      <c r="P13" t="str">
-        <v xml:space="preserve"> Hadoop</v>
-      </c>
-      <c r="Q13" t="str">
-        <v xml:space="preserve"> Power BI</v>
-      </c>
-      <c r="R13" t="str">
-        <v xml:space="preserve"> SQL</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11">
-        <v>45523</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="str" cm="1">
-        <f t="array" ref="K14:L14">_xlfn.TEXTSPLIT(A14," ")</f>
-        <v>Ryan</v>
-      </c>
-      <c r="L14" t="str">
-        <v>Howard</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14:P14">_xlfn.TEXTSPLIT(G14,",")</f>
-        <v>Snowflake</v>
-      </c>
-      <c r="O14" t="str">
-        <v xml:space="preserve"> Airflow</v>
-      </c>
-      <c r="P14" t="str">
-        <v xml:space="preserve"> DataBricks</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11">
-        <v>45525</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="str" cm="1">
-        <f t="array" ref="K15:L15">_xlfn.TEXTSPLIT(A15," ")</f>
-        <v>Phyllis</v>
-      </c>
-      <c r="L15" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15:P15">_xlfn.TEXTSPLIT(G15,",")</f>
-        <v>Java</v>
-      </c>
-      <c r="O15" t="str">
-        <v xml:space="preserve"> Scala</v>
-      </c>
-      <c r="P15" t="str">
-        <v xml:space="preserve"> R</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="11">
-        <v>45527</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="str" cm="1">
-        <f t="array" ref="K16:L16">_xlfn.TEXTSPLIT(A16," ")</f>
-        <v>Meredith</v>
-      </c>
-      <c r="L16" t="str">
-        <v>Palmer</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16:P16">_xlfn.TEXTSPLIT(G16,",")</f>
-        <v>DataBricks</v>
-      </c>
-      <c r="O16" t="str">
-        <v xml:space="preserve"> Azure</v>
-      </c>
-      <c r="P16" t="str">
-        <v xml:space="preserve"> Scala</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11">
-        <v>45528</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="str" cm="1">
-        <f t="array" ref="K17:L17">_xlfn.TEXTSPLIT(A17," ")</f>
-        <v>Michael</v>
-      </c>
-      <c r="L17" t="str">
-        <v>Scott</v>
-      </c>
-      <c r="N17" t="str" cm="1">
-        <f t="array" ref="N17:R17">_xlfn.TEXTSPLIT(G17,",")</f>
-        <v>Power BI</v>
-      </c>
-      <c r="O17" t="str">
-        <v xml:space="preserve"> GCP</v>
-      </c>
-      <c r="P17" t="str">
-        <v xml:space="preserve"> Airflow</v>
-      </c>
-      <c r="Q17" t="str">
-        <v xml:space="preserve"> Hadoop</v>
-      </c>
-      <c r="R17" t="str">
-        <v xml:space="preserve"> R</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11">
-        <v>45530</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" t="str" cm="1">
-        <f t="array" ref="K18:L18">_xlfn.TEXTSPLIT(A18," ")</f>
-        <v>Jim</v>
-      </c>
-      <c r="L18" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18:P18">_xlfn.TEXTSPLIT(G18,",")</f>
-        <v>DataBricks</v>
-      </c>
-      <c r="O18" t="str">
-        <v xml:space="preserve"> Hadoop</v>
-      </c>
-      <c r="P18" t="str">
-        <v xml:space="preserve"> Java</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11">
-        <v>45531</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" t="str" cm="1">
-        <f t="array" ref="K19:L19">_xlfn.TEXTSPLIT(A19," ")</f>
-        <v>Kelly</v>
-      </c>
-      <c r="L19" t="str">
-        <v>Kapoor</v>
-      </c>
-      <c r="N19" t="str" cm="1">
-        <f t="array" ref="N19:R19">_xlfn.TEXTSPLIT(G19,",")</f>
-        <v>Snowflake</v>
-      </c>
-      <c r="O19" t="str">
-        <v xml:space="preserve"> Power BI</v>
-      </c>
-      <c r="P19" t="str">
-        <v xml:space="preserve"> Tableau</v>
-      </c>
-      <c r="Q19" t="str">
-        <v xml:space="preserve"> Airflow</v>
-      </c>
-      <c r="R19" t="str">
-        <v xml:space="preserve"> SQL</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11">
-        <v>45533</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" t="str" cm="1">
-        <f t="array" ref="K20:L20">_xlfn.TEXTSPLIT(A20," ")</f>
-        <v>Jim</v>
-      </c>
-      <c r="L20" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="N20" t="str" cm="1">
-        <f t="array" ref="N20:P20">_xlfn.TEXTSPLIT(G20,",")</f>
-        <v>DataBricks</v>
-      </c>
-      <c r="O20" t="str">
-        <v xml:space="preserve"> Hadoop</v>
-      </c>
-      <c r="P20" t="str">
-        <v xml:space="preserve"> Java</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13">
-        <v>45535</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" t="str" cm="1">
-        <f t="array" ref="K21:L21">_xlfn.TEXTSPLIT(A21," ")</f>
-        <v>Jim</v>
-      </c>
-      <c r="L21" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="N21" t="str" cm="1">
-        <f t="array" ref="N21:P21">_xlfn.TEXTSPLIT(G21,",")</f>
-        <v>DataBricks</v>
-      </c>
-      <c r="O21" t="str">
-        <v xml:space="preserve"> Hadoop</v>
-      </c>
-      <c r="P21" t="str">
-        <v xml:space="preserve"> Java</v>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>0123567</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N1:R1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="18"/>
+      <c r="J1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="10">
         <v>45505</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15">
-        <f>FIND(", ", F2)+1</f>
+      <c r="I2" s="17"/>
+      <c r="J2" s="20">
+        <f>FIND(", ", G2)+1</f>
         <v>10</v>
       </c>
-      <c r="J2" s="15">
-        <f>FIND(", ", F2, I2)</f>
+      <c r="K2" s="20">
+        <f>FIND(", ", G2, J2)</f>
         <v>13</v>
       </c>
-      <c r="K2" s="15" t="str">
-        <f>MID(F2,I2+1,J2-I2-1)</f>
+      <c r="L2" s="20" t="str">
+        <f>MID(G2,J2+1,K2-J2-1)</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="10">
         <v>45506</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="17"/>
+      <c r="J3" s="20">
+        <f t="shared" ref="J3:J21" si="0">FIND(", ", G3)+1</f>
+        <v>9</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:K21" si="1">FIND(", ", G3, J3)</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="20" t="str">
+        <f t="shared" ref="L3:L21" si="2">MID(G3,J3+1,K3-J3-1)</f>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10">
+        <v>45508</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L4" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="20">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J3" s="16">
+      <c r="K5" s="20">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="L5" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45511</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L6" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45512</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L7" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45514</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C4" s="11">
-        <v>45508</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="L8" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45516</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>45517</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
-        <v>45509</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45519</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>45520</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="K12" s="20">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>45522</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
+        <v>45523</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L14" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10">
+        <v>45525</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10">
+        <v>45527</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45528</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10">
+        <v>45530</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
-        <v>45511</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D19" s="10">
+        <v>45531</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="L19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10">
+        <v>45533</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
-        <v>45512</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
-        <v>45514</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>45516</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11">
-        <v>45517</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11">
-        <v>45519</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="D21" s="12">
+        <v>45535</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11">
-        <v>45520</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11">
-        <v>45522</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11">
-        <v>45523</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11">
-        <v>45525</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="11">
-        <v>45527</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11">
-        <v>45528</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11">
-        <v>45530</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11">
-        <v>45531</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11">
-        <v>45533</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13">
-        <v>45535</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>10</v>
+      <c r="L21" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>NY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4307,31 +4786,31 @@
   <dimension ref="A2:BW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>_xlfn.TEXTJOIN(", ", TRUE, Original_Luke!G2:G21)</f>
+        <f>_xlfn.TEXTJOIN(", ", TRUE, Original!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3, ", ")</f>
         <v>Kafka</v>
@@ -4559,165 +5038,165 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
       </c>
       <c r="B9" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A9&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
       <c r="B10" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A10&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A10&amp;"*")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
       <c r="B11" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A11&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A11&amp;"*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
       <c r="B12" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A12&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A12&amp;"*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
       <c r="B13" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A13&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A13&amp;"*")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
       <c r="B14" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A14&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A14&amp;"*")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
       <c r="B15" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A15&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A15&amp;"*")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
       <c r="B16" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A16&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A16&amp;"*")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
       <c r="B17" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A17&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A17&amp;"*")</f>
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
       <c r="B18" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A18&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A18&amp;"*")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
       <c r="B19" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A19&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A19&amp;"*")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
       <c r="B20" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A20&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A20&amp;"*")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
       <c r="B21" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A21&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A21&amp;"*")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
       <c r="B22" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A22&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A22&amp;"*")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
       <c r="B23" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A23&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A23&amp;"*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
       <c r="B24" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A24&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A24&amp;"*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="1">
-        <f>COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A25&amp;"*")</f>
+        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A25&amp;"*")</f>
         <v>0</v>
       </c>
     </row>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EE17C-6C3C-43D6-BF92-ED8D4412584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81899903-EEAF-4F26-BBDD-BA8A73258393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -522,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -538,14 +538,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1786,7 +1782,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2398,6 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18"/>
       <c r="J1" s="13" t="s">
         <v>63</v>
       </c>
@@ -2432,7 +2427,6 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="17"/>
       <c r="J2" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,F2,G2)</f>
         <v>457 Oak St San Jose, CA, 95101</v>
@@ -2463,7 +2457,6 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="17"/>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J21" si="0">_xlfn.TEXTJOIN(" ",TRUE,F3,G3)</f>
         <v>203 Birch St Chicago, IL, 60601</v>
@@ -2494,7 +2487,6 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17"/>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>790 Pine St Chicago, IL, 60601</v>
@@ -2525,7 +2517,6 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="17"/>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>457 Oak St San Jose, CA, 95101</v>
@@ -2556,7 +2547,6 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St Philadelphia, PA, 19101</v>
@@ -2587,7 +2577,6 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17"/>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>204 Birch St Philadelphia, PA, 19101</v>
@@ -2618,7 +2607,6 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="17"/>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>790 Pine St Chicago, IL, 60601</v>
@@ -2649,7 +2637,6 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="17"/>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>204 Birch St Philadelphia, PA, 19101</v>
@@ -2680,7 +2667,6 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="17"/>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St Chicago, IL, 60601</v>
@@ -2711,7 +2697,6 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="17"/>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St Los Angeles, CA, 90001</v>
@@ -2742,7 +2727,6 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="17"/>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St San Diego, CA, 92101</v>
@@ -2773,7 +2757,6 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="17"/>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>202 Birch St Chicago, IL, 60601</v>
@@ -2804,7 +2787,6 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="17"/>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>204 Birch St Philadelphia, PA, 19101</v>
@@ -2835,7 +2817,6 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="17"/>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>123 Elm St Chicago, IL, 60601</v>
@@ -2866,7 +2847,6 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="17"/>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>456 Oak St Chicago, IL, 60601</v>
@@ -2897,7 +2877,6 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="17"/>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>203 Birch St Chicago, IL, 60602</v>
@@ -2928,7 +2907,6 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="17"/>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St Philadelphia, PA, 19101</v>
@@ -2959,7 +2937,6 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="17"/>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>456 Oak St New York, NY, 10001</v>
@@ -2990,7 +2967,6 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="17"/>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St Philadelphia, PA, 19101</v>
@@ -3021,7 +2997,6 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="17"/>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>459 Oak St New York, NY, 10001</v>
@@ -3087,14 +3062,14 @@
       <c r="J1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3986,12 +3961,11 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -4018,16 +3992,15 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="20">
+      <c r="J2">
         <f>FIND(", ", G2)+1</f>
         <v>10</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2">
         <f>FIND(", ", G2, J2)</f>
         <v>13</v>
       </c>
-      <c r="L2" s="20" t="str">
+      <c r="L2" t="str">
         <f>MID(G2,J2+1,K2-J2-1)</f>
         <v>CA</v>
       </c>
@@ -4057,16 +4030,15 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="20">
+      <c r="J3">
         <f t="shared" ref="J3:J21" si="0">FIND(", ", G3)+1</f>
         <v>9</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3">
         <f t="shared" ref="K3:K21" si="1">FIND(", ", G3, J3)</f>
         <v>12</v>
       </c>
-      <c r="L3" s="20" t="str">
+      <c r="L3" t="str">
         <f t="shared" ref="L3:L21" si="2">MID(G3,J3+1,K3-J3-1)</f>
         <v>IL</v>
       </c>
@@ -4096,16 +4068,15 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="20">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L4" s="20" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="2"/>
         <v>IL</v>
       </c>
@@ -4135,16 +4106,15 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="20">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L5" s="20" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="2"/>
         <v>CA</v>
       </c>
@@ -4174,16 +4144,15 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="20">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L6" s="20" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="2"/>
         <v>PA</v>
       </c>
@@ -4213,16 +4182,15 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="20">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="2"/>
         <v>PA</v>
       </c>
@@ -4252,16 +4220,15 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="20">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="2"/>
         <v>IL</v>
       </c>
@@ -4291,16 +4258,15 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="20">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="2"/>
         <v>PA</v>
       </c>
@@ -4330,16 +4296,15 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="20">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L10" s="20" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="2"/>
         <v>IL</v>
       </c>
@@ -4369,16 +4334,15 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="20">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L11" s="20" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="2"/>
         <v>CA</v>
       </c>
@@ -4408,16 +4372,15 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="20">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L12" s="20" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="2"/>
         <v>CA</v>
       </c>
@@ -4447,16 +4410,15 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="20">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L13" s="20" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="2"/>
         <v>IL</v>
       </c>
@@ -4486,16 +4448,15 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="20">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L14" s="20" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="2"/>
         <v>PA</v>
       </c>
@@ -4525,16 +4486,15 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="20">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L15" s="20" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="2"/>
         <v>IL</v>
       </c>
@@ -4564,16 +4524,15 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="20">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="2"/>
         <v>IL</v>
       </c>
@@ -4603,16 +4562,15 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="20">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="2"/>
         <v>IL</v>
       </c>
@@ -4642,16 +4600,15 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="20">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L18" s="20" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="2"/>
         <v>PA</v>
       </c>
@@ -4681,16 +4638,15 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="20">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L19" s="20" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="2"/>
         <v>NY</v>
       </c>
@@ -4720,16 +4676,15 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L20" s="20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="2"/>
         <v>PA</v>
       </c>
@@ -4759,16 +4714,15 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="20">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L21" s="20" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="2"/>
         <v>NY</v>
       </c>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81899903-EEAF-4F26-BBDD-BA8A73258393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7753A1A6-3B11-4932-9767-DC597992099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6" yWindow="-78" windowWidth="18132" windowHeight="11478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>=UNIQUE(TRANSPOSE(6:6))</t>
   </si>
   <si>
-    <t>=COUNTIF(Original_Luke!$G$2:$G$21, "*"&amp;Skills!A9&amp;"*")</t>
-  </si>
-  <si>
     <t>Applicant ID</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
   </si>
   <si>
     <t>Applicant ID (Short)</t>
+  </si>
+  <si>
+    <t>=COUNTIF(Original!$G$2:$G$21, "*"&amp;Skills!A9&amp;"*")</t>
   </si>
 </sst>
 </file>
@@ -1785,21 +1785,21 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.26171875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1823,9 +1823,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -1849,9 +1849,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -1875,9 +1875,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -1901,9 +1901,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -1927,9 +1927,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -1953,9 +1953,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -1979,9 +1979,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -2005,9 +2005,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -2031,9 +2031,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -2057,9 +2057,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -2083,9 +2083,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
@@ -2109,9 +2109,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2135,9 +2135,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -2161,9 +2161,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
@@ -2187,9 +2187,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
@@ -2213,9 +2213,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -2239,9 +2239,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -2265,9 +2265,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -2291,9 +2291,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -2317,9 +2317,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>41</v>
@@ -2360,12 +2360,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
@@ -2373,9 +2373,9 @@
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -2402,9 +2402,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -2432,9 +2432,9 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -2462,9 +2462,9 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -2492,9 +2492,9 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -2522,9 +2522,9 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -2552,9 +2552,9 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -2582,9 +2582,9 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -2612,9 +2612,9 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -2642,9 +2642,9 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -2672,9 +2672,9 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -2702,9 +2702,9 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
@@ -2732,9 +2732,9 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2762,9 +2762,9 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -2792,9 +2792,9 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
@@ -2822,9 +2822,9 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
@@ -2852,9 +2852,9 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -2882,9 +2882,9 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -2912,9 +2912,9 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -2942,9 +2942,9 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -2972,9 +2972,9 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>41</v>
@@ -3011,29 +3011,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="G36" sqref="G35:G36"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="5" max="5" width="11.83984375" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3067,15 +3067,15 @@
         <v>64</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -3118,9 +3118,9 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -3162,9 +3162,9 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -3206,9 +3206,9 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -3250,9 +3250,9 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -3294,9 +3294,9 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -3335,9 +3335,9 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -3376,9 +3376,9 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -3417,9 +3417,9 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -3458,9 +3458,9 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -3499,9 +3499,9 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
@@ -3540,9 +3540,9 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -3581,9 +3581,9 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3622,9 +3622,9 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
@@ -3663,9 +3663,9 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
@@ -3704,9 +3704,9 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -3745,9 +3745,9 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -3786,9 +3786,9 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -3827,9 +3827,9 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -3868,9 +3868,9 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>41</v>
@@ -3918,27 +3918,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="5" max="5" width="11.83984375" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.578125" customWidth="1"/>
+    <col min="10" max="10" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3967,9 +3967,9 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -3993,21 +3993,21 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <f>FIND(", ", G2)+1</f>
-        <v>10</v>
+        <f>FIND(", ",G2)+2</f>
+        <v>11</v>
       </c>
       <c r="K2">
-        <f>FIND(", ", G2, J2)</f>
+        <f>FIND(", ",G2,J2)</f>
         <v>13</v>
       </c>
       <c r="L2" t="str">
-        <f>MID(G2,J2+1,K2-J2-1)</f>
+        <f>MID(G2,J2,K2-J2)</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -4031,21 +4031,21 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J21" si="0">FIND(", ", G3)+1</f>
-        <v>9</v>
+        <f t="shared" ref="J3:J21" si="0">FIND(", ",G3)+2</f>
+        <v>10</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K21" si="1">FIND(", ", G3, J3)</f>
+        <f t="shared" ref="K3:K21" si="1">FIND(", ",G3,J3)</f>
         <v>12</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L21" si="2">MID(G3,J3+1,K3-J3-1)</f>
+        <f t="shared" ref="L3:L21" si="2">MID(G3,J3,K3-J3)</f>
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
@@ -4081,9 +4081,9 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
@@ -4119,9 +4119,9 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
@@ -4157,9 +4157,9 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
@@ -4195,9 +4195,9 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
@@ -4233,9 +4233,9 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
@@ -4271,9 +4271,9 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
@@ -4309,9 +4309,9 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
@@ -4347,9 +4347,9 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
@@ -4385,9 +4385,9 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
@@ -4423,9 +4423,9 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
@@ -4461,9 +4461,9 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
@@ -4499,9 +4499,9 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
@@ -4537,9 +4537,9 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
@@ -4575,9 +4575,9 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
@@ -4613,9 +4613,9 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
@@ -4651,9 +4651,9 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
@@ -4689,9 +4689,9 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>41</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
@@ -4740,31 +4740,31 @@
   <dimension ref="A2:BW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ", TRUE, Original!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3, ", ")</f>
         <v>Kafka</v>
@@ -4992,15 +4992,15 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
@@ -5010,7 +5010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>0</v>
       </c>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7753A1A6-3B11-4932-9767-DC597992099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04C014-F11F-4C69-BF57-AE87F8B6E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6" yWindow="-78" windowWidth="18132" windowHeight="11478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -130,9 +130,6 @@
     <t>Street</t>
   </si>
   <si>
-    <t>Application Date</t>
-  </si>
-  <si>
     <t>City State Zip</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>=TEXTSPLIT(A3, ", ")</t>
   </si>
   <si>
-    <t>=TEXTJOIN(", ", TRUE, Original!G2:G21)</t>
-  </si>
-  <si>
     <t>=UNIQUE(TRANSPOSE(6:6))</t>
   </si>
   <si>
@@ -346,13 +340,22 @@
     <t>Applicant ID (Short)</t>
   </si>
   <si>
-    <t>=COUNTIF(Original!$G$2:$G$21, "*"&amp;Skills!A9&amp;"*")</t>
+    <t>=TEXTJOIN(", ", TRUE, Original!H1:H20)</t>
+  </si>
+  <si>
+    <t>=COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</t>
+  </si>
+  <si>
+    <t>Application Date &amp; Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,15 +536,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1782,24 +1785,24 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.578125" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1807,8 +1810,8 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>22</v>
+      <c r="D1" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -1817,527 +1820,527 @@
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>45505</v>
+      <c r="D2" s="15">
+        <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
-        <v>45506</v>
+      <c r="D3" s="15">
+        <v>45055.406597222223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10">
-        <v>45508</v>
+      <c r="D4" s="15">
+        <v>45128.770833333336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
-        <v>45509</v>
+      <c r="D5" s="15">
+        <v>45173.302604166667</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
-        <v>45511</v>
+      <c r="D6" s="15">
+        <v>45248.833333333336</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>45512</v>
+      <c r="D7" s="15">
+        <v>45302.531423611108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
-        <v>45514</v>
+      <c r="D8" s="15">
+        <v>45354.687847222223</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>45516</v>
+      <c r="D9" s="15">
+        <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
-        <v>45517</v>
+      <c r="D10" s="15">
+        <v>45458.806076388886</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
-        <v>45519</v>
+      <c r="D11" s="15">
+        <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10">
-        <v>45520</v>
+      <c r="D12" s="15">
+        <v>45455.285069444442</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
-        <v>45522</v>
+      <c r="D13" s="15">
+        <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
-        <v>45523</v>
+      <c r="D14" s="15">
+        <v>45002.490104166667</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
-        <v>45525</v>
+      <c r="D15" s="15">
+        <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
-        <v>45527</v>
+      <c r="D16" s="15">
+        <v>45168.937673611108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10">
-        <v>45528</v>
+      <c r="D17" s="15">
+        <v>45218.236458333333</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
-        <v>45530</v>
+      <c r="D18" s="15">
+        <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10">
-        <v>45531</v>
+      <c r="D19" s="15">
+        <v>45418.892881944441</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
-        <v>45533</v>
+      <c r="D20" s="15">
+        <v>45496.083333333336</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12">
-        <v>45535</v>
+      <c r="D21" s="16">
+        <v>45422.989930555559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>10</v>
@@ -2357,15 +2360,15 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D1" sqref="D1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
@@ -2373,9 +2376,9 @@
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -2383,8 +2386,8 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>22</v>
+      <c r="D1" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -2393,36 +2396,36 @@
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>45505</v>
+      <c r="D2" s="15">
+        <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -2432,27 +2435,27 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
-        <v>45506</v>
+      <c r="D3" s="15">
+        <v>45055.406597222223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>14</v>
@@ -2462,27 +2465,27 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10">
-        <v>45508</v>
+      <c r="D4" s="15">
+        <v>45128.770833333336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
@@ -2492,27 +2495,27 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
-        <v>45509</v>
+      <c r="D5" s="15">
+        <v>45173.302604166667</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>11</v>
@@ -2522,27 +2525,27 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
-        <v>45511</v>
+      <c r="D6" s="15">
+        <v>45248.833333333336</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -2552,27 +2555,27 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>45512</v>
+      <c r="D7" s="15">
+        <v>45302.531423611108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>15</v>
@@ -2582,27 +2585,27 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
-        <v>45514</v>
+      <c r="D8" s="15">
+        <v>45354.687847222223</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
@@ -2612,27 +2615,27 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>45516</v>
+      <c r="D9" s="15">
+        <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
@@ -2642,27 +2645,27 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
-        <v>45517</v>
+      <c r="D10" s="15">
+        <v>45458.806076388886</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>18</v>
@@ -2672,27 +2675,27 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
-        <v>45519</v>
+      <c r="D11" s="15">
+        <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
@@ -2702,27 +2705,27 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10">
-        <v>45520</v>
+      <c r="D12" s="15">
+        <v>45455.285069444442</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>17</v>
@@ -2732,27 +2735,27 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
-        <v>45522</v>
+      <c r="D13" s="15">
+        <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
@@ -2762,27 +2765,27 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
-        <v>45523</v>
+      <c r="D14" s="15">
+        <v>45002.490104166667</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>15</v>
@@ -2792,27 +2795,27 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
-        <v>45525</v>
+      <c r="D15" s="15">
+        <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
@@ -2822,27 +2825,27 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
-        <v>45527</v>
+      <c r="D16" s="15">
+        <v>45168.937673611108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -2852,27 +2855,27 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10">
-        <v>45528</v>
+      <c r="D17" s="15">
+        <v>45218.236458333333</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>14</v>
@@ -2882,27 +2885,27 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
-        <v>45530</v>
+      <c r="D18" s="15">
+        <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>10</v>
@@ -2912,27 +2915,27 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10">
-        <v>45531</v>
+      <c r="D19" s="15">
+        <v>45418.892881944441</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>8</v>
@@ -2942,27 +2945,27 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
-        <v>45533</v>
+      <c r="D20" s="15">
+        <v>45496.083333333336</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>10</v>
@@ -2972,27 +2975,27 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12">
-        <v>45535</v>
+      <c r="D21" s="16">
+        <v>45422.989930555559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>10</v>
@@ -3011,29 +3014,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3041,8 +3044,8 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>22</v>
+      <c r="D1" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -3051,49 +3054,49 @@
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>45505</v>
+      <c r="D2" s="15">
+        <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -3118,27 +3121,27 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
-        <v>45506</v>
+      <c r="D3" s="15">
+        <v>45055.406597222223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>14</v>
@@ -3162,27 +3165,27 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10">
-        <v>45508</v>
+      <c r="D4" s="15">
+        <v>45128.770833333336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
@@ -3206,27 +3209,27 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
-        <v>45509</v>
+      <c r="D5" s="15">
+        <v>45173.302604166667</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>11</v>
@@ -3250,27 +3253,27 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
-        <v>45511</v>
+      <c r="D6" s="15">
+        <v>45248.833333333336</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -3294,27 +3297,27 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>45512</v>
+      <c r="D7" s="15">
+        <v>45302.531423611108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>15</v>
@@ -3335,27 +3338,27 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
-        <v>45514</v>
+      <c r="D8" s="15">
+        <v>45354.687847222223</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
@@ -3376,27 +3379,27 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>45516</v>
+      <c r="D9" s="15">
+        <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
@@ -3417,27 +3420,27 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
-        <v>45517</v>
+      <c r="D10" s="15">
+        <v>45458.806076388886</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>18</v>
@@ -3458,27 +3461,27 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
-        <v>45519</v>
+      <c r="D11" s="15">
+        <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
@@ -3499,27 +3502,27 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10">
-        <v>45520</v>
+      <c r="D12" s="15">
+        <v>45455.285069444442</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>17</v>
@@ -3540,27 +3543,27 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
-        <v>45522</v>
+      <c r="D13" s="15">
+        <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
@@ -3581,27 +3584,27 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
-        <v>45523</v>
+      <c r="D14" s="15">
+        <v>45002.490104166667</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>15</v>
@@ -3622,27 +3625,27 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
-        <v>45525</v>
+      <c r="D15" s="15">
+        <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
@@ -3663,27 +3666,27 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
-        <v>45527</v>
+      <c r="D16" s="15">
+        <v>45168.937673611108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -3704,27 +3707,27 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10">
-        <v>45528</v>
+      <c r="D17" s="15">
+        <v>45218.236458333333</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>14</v>
@@ -3745,27 +3748,27 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
-        <v>45530</v>
+      <c r="D18" s="15">
+        <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>10</v>
@@ -3786,27 +3789,27 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10">
-        <v>45531</v>
+      <c r="D19" s="15">
+        <v>45418.892881944441</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>8</v>
@@ -3827,27 +3830,27 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
-        <v>45533</v>
+      <c r="D20" s="15">
+        <v>45496.083333333336</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>10</v>
@@ -3868,27 +3871,27 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12">
-        <v>45535</v>
+      <c r="D21" s="16">
+        <v>45422.989930555559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>10</v>
@@ -3918,27 +3921,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.26171875" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.578125" customWidth="1"/>
-    <col min="10" max="10" width="9.15625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3946,8 +3949,8 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>22</v>
+      <c r="D1" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -3956,38 +3959,38 @@
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>45505</v>
+      <c r="D2" s="15">
+        <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -4005,27 +4008,27 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
-        <v>45506</v>
+      <c r="D3" s="15">
+        <v>45055.406597222223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>14</v>
@@ -4043,27 +4046,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10">
-        <v>45508</v>
+      <c r="D4" s="15">
+        <v>45128.770833333336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>6</v>
@@ -4081,27 +4084,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
-        <v>45509</v>
+      <c r="D5" s="15">
+        <v>45173.302604166667</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>11</v>
@@ -4119,27 +4122,27 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
-        <v>45511</v>
+      <c r="D6" s="15">
+        <v>45248.833333333336</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -4157,27 +4160,27 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>45512</v>
+      <c r="D7" s="15">
+        <v>45302.531423611108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>15</v>
@@ -4195,27 +4198,27 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
-        <v>45514</v>
+      <c r="D8" s="15">
+        <v>45354.687847222223</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
@@ -4233,27 +4236,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>45516</v>
+      <c r="D9" s="15">
+        <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
@@ -4271,27 +4274,27 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
-        <v>45517</v>
+      <c r="D10" s="15">
+        <v>45458.806076388886</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>18</v>
@@ -4309,27 +4312,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
-        <v>45519</v>
+      <c r="D11" s="15">
+        <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
@@ -4347,27 +4350,27 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10">
-        <v>45520</v>
+      <c r="D12" s="15">
+        <v>45455.285069444442</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>17</v>
@@ -4385,27 +4388,27 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
-        <v>45522</v>
+      <c r="D13" s="15">
+        <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
@@ -4423,27 +4426,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
-        <v>45523</v>
+      <c r="D14" s="15">
+        <v>45002.490104166667</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>15</v>
@@ -4461,27 +4464,27 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
-        <v>45525</v>
+      <c r="D15" s="15">
+        <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
@@ -4499,27 +4502,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
-        <v>45527</v>
+      <c r="D16" s="15">
+        <v>45168.937673611108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -4537,27 +4540,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10">
-        <v>45528</v>
+      <c r="D17" s="15">
+        <v>45218.236458333333</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>14</v>
@@ -4575,27 +4578,27 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
-        <v>45530</v>
+      <c r="D18" s="15">
+        <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>10</v>
@@ -4613,27 +4616,27 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10">
-        <v>45531</v>
+      <c r="D19" s="15">
+        <v>45418.892881944441</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>8</v>
@@ -4651,27 +4654,27 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
-        <v>45533</v>
+      <c r="D20" s="15">
+        <v>45496.083333333336</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>10</v>
@@ -4689,27 +4692,27 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12">
-        <v>45535</v>
+      <c r="D21" s="16">
+        <v>45422.989930555559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>10</v>
@@ -4739,32 +4742,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.41796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ", TRUE, Original!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3, ", ")</f>
         <v>Kafka</v>
@@ -4992,15 +4995,15 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
@@ -5010,7 +5013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
@@ -5082,7 +5085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04C014-F11F-4C69-BF57-AE87F8B6E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0F12E-2AB8-4E59-8773-8021B550FDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -540,11 +540,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M30" sqref="M30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1862,8 +1862,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
-        <v>45055.406597222223</v>
+      <c r="D3" s="14">
+        <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -1888,8 +1888,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15">
-        <v>45128.770833333336</v>
+      <c r="D4" s="14">
+        <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -1914,8 +1914,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15">
-        <v>45173.302604166667</v>
+      <c r="D5" s="14">
+        <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -1940,8 +1940,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15">
-        <v>45248.833333333336</v>
+      <c r="D6" s="14">
+        <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -1966,8 +1966,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
-        <v>45302.531423611108</v>
+      <c r="D7" s="14">
+        <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -1992,8 +1992,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <v>45354.687847222223</v>
+      <c r="D8" s="14">
+        <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -2018,7 +2018,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2044,8 +2044,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15">
-        <v>45458.806076388886</v>
+      <c r="D10" s="14">
+        <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -2070,7 +2070,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2096,8 +2096,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15">
-        <v>45455.285069444442</v>
+      <c r="D12" s="14">
+        <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -2122,7 +2122,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2148,8 +2148,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15">
-        <v>45002.490104166667</v>
+      <c r="D14" s="14">
+        <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -2174,7 +2174,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2200,8 +2200,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="15">
-        <v>45168.937673611108</v>
+      <c r="D16" s="14">
+        <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -2226,8 +2226,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15">
-        <v>45218.236458333333</v>
+      <c r="D17" s="14">
+        <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -2252,7 +2252,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2278,8 +2278,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="15">
-        <v>45418.892881944441</v>
+      <c r="D19" s="14">
+        <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -2304,8 +2304,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15">
-        <v>45496.083333333336</v>
+      <c r="D20" s="14">
+        <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -2330,8 +2330,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16">
-        <v>45422.989930555559</v>
+      <c r="D21" s="15">
+        <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D21"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2415,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2445,8 +2445,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
-        <v>45055.406597222223</v>
+      <c r="D3" s="14">
+        <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -2475,8 +2475,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15">
-        <v>45128.770833333336</v>
+      <c r="D4" s="14">
+        <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -2505,8 +2505,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15">
-        <v>45173.302604166667</v>
+      <c r="D5" s="14">
+        <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -2535,8 +2535,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15">
-        <v>45248.833333333336</v>
+      <c r="D6" s="14">
+        <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -2565,8 +2565,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
-        <v>45302.531423611108</v>
+      <c r="D7" s="14">
+        <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -2595,8 +2595,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <v>45354.687847222223</v>
+      <c r="D8" s="14">
+        <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -2625,7 +2625,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2655,8 +2655,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15">
-        <v>45458.806076388886</v>
+      <c r="D10" s="14">
+        <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -2685,7 +2685,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2715,8 +2715,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15">
-        <v>45455.285069444442</v>
+      <c r="D12" s="14">
+        <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -2745,7 +2745,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2775,8 +2775,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15">
-        <v>45002.490104166667</v>
+      <c r="D14" s="14">
+        <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -2805,7 +2805,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2835,8 +2835,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="15">
-        <v>45168.937673611108</v>
+      <c r="D16" s="14">
+        <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -2865,8 +2865,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15">
-        <v>45218.236458333333</v>
+      <c r="D17" s="14">
+        <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -2895,7 +2895,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2925,8 +2925,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="15">
-        <v>45418.892881944441</v>
+      <c r="D19" s="14">
+        <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -2955,8 +2955,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15">
-        <v>45496.083333333336</v>
+      <c r="D20" s="14">
+        <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -2985,8 +2985,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16">
-        <v>45422.989930555559</v>
+      <c r="D21" s="15">
+        <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>
@@ -3015,7 +3015,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D21"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,7 +3086,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3131,8 +3131,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
-        <v>45055.406597222223</v>
+      <c r="D3" s="14">
+        <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -3175,8 +3175,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15">
-        <v>45128.770833333336</v>
+      <c r="D4" s="14">
+        <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -3219,8 +3219,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15">
-        <v>45173.302604166667</v>
+      <c r="D5" s="14">
+        <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -3263,8 +3263,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15">
-        <v>45248.833333333336</v>
+      <c r="D6" s="14">
+        <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -3307,8 +3307,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
-        <v>45302.531423611108</v>
+      <c r="D7" s="14">
+        <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -3348,8 +3348,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <v>45354.687847222223</v>
+      <c r="D8" s="14">
+        <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -3389,7 +3389,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3430,8 +3430,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15">
-        <v>45458.806076388886</v>
+      <c r="D10" s="14">
+        <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -3471,7 +3471,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3512,8 +3512,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15">
-        <v>45455.285069444442</v>
+      <c r="D12" s="14">
+        <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -3553,7 +3553,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3594,8 +3594,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15">
-        <v>45002.490104166667</v>
+      <c r="D14" s="14">
+        <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -3635,7 +3635,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3676,8 +3676,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="15">
-        <v>45168.937673611108</v>
+      <c r="D16" s="14">
+        <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -3717,8 +3717,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15">
-        <v>45218.236458333333</v>
+      <c r="D17" s="14">
+        <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -3758,7 +3758,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3799,8 +3799,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="15">
-        <v>45418.892881944441</v>
+      <c r="D19" s="14">
+        <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -3840,8 +3840,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15">
-        <v>45496.083333333336</v>
+      <c r="D20" s="14">
+        <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -3881,8 +3881,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16">
-        <v>45422.989930555559</v>
+      <c r="D21" s="15">
+        <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>
@@ -3922,7 +3922,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,11 +3964,11 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3980,7 +3980,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4018,8 +4018,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
-        <v>45055.406597222223</v>
+      <c r="D3" s="14">
+        <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -4056,8 +4056,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15">
-        <v>45128.770833333336</v>
+      <c r="D4" s="14">
+        <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -4094,8 +4094,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15">
-        <v>45173.302604166667</v>
+      <c r="D5" s="14">
+        <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -4132,8 +4132,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15">
-        <v>45248.833333333336</v>
+      <c r="D6" s="14">
+        <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -4170,8 +4170,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
-        <v>45302.531423611108</v>
+      <c r="D7" s="14">
+        <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -4208,8 +4208,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <v>45354.687847222223</v>
+      <c r="D8" s="14">
+        <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -4246,7 +4246,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4284,8 +4284,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15">
-        <v>45458.806076388886</v>
+      <c r="D10" s="14">
+        <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -4322,7 +4322,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -4360,8 +4360,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15">
-        <v>45455.285069444442</v>
+      <c r="D12" s="14">
+        <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -4398,7 +4398,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4436,8 +4436,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15">
-        <v>45002.490104166667</v>
+      <c r="D14" s="14">
+        <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -4474,7 +4474,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4512,8 +4512,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="15">
-        <v>45168.937673611108</v>
+      <c r="D16" s="14">
+        <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -4550,8 +4550,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15">
-        <v>45218.236458333333</v>
+      <c r="D17" s="14">
+        <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -4588,7 +4588,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4626,8 +4626,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="15">
-        <v>45418.892881944441</v>
+      <c r="D19" s="14">
+        <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -4664,8 +4664,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15">
-        <v>45496.083333333336</v>
+      <c r="D20" s="14">
+        <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -4702,8 +4702,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16">
-        <v>45422.989930555559</v>
+      <c r="D21" s="15">
+        <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0F12E-2AB8-4E59-8773-8021B550FDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D707D5D-20BF-4807-B991-130EA48C94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -537,12 +537,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1784,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30:N30"/>
     </sheetView>
   </sheetViews>
@@ -1836,7 +1835,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1862,7 +1861,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1888,7 +1887,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1914,7 +1913,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1940,7 +1939,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1966,7 +1965,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1992,7 +1991,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2018,7 +2017,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2044,7 +2043,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2070,7 +2069,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2096,7 +2095,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2122,7 +2121,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2148,7 +2147,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2174,7 +2173,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2200,7 +2199,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2226,7 +2225,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2252,7 +2251,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2278,7 +2277,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2304,7 +2303,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2330,7 +2329,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2360,7 +2359,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,7 +2400,7 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2415,7 +2414,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2445,7 +2444,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2475,7 +2474,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2505,7 +2504,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2535,7 +2534,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2565,7 +2564,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2595,7 +2594,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2625,7 +2624,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2655,7 +2654,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2685,7 +2684,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2715,7 +2714,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2745,7 +2744,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2775,7 +2774,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2805,7 +2804,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2835,7 +2834,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2865,7 +2864,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2895,7 +2894,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2925,7 +2924,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2955,7 +2954,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2985,7 +2984,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -3014,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,20 +3058,20 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3086,7 +3085,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3131,7 +3130,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3175,7 +3174,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3219,7 +3218,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3263,7 +3262,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3307,7 +3306,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3348,7 +3347,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3389,7 +3388,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3430,7 +3429,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3471,7 +3470,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3512,7 +3511,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3553,7 +3552,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3594,7 +3593,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3635,7 +3634,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3676,7 +3675,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3717,7 +3716,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3758,7 +3757,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3799,7 +3798,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3840,7 +3839,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3881,7 +3880,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -3922,7 +3921,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,11 +3963,11 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3980,7 +3979,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4018,7 +4017,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>45055.40625</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4056,7 +4055,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>45128.729166666664</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4094,7 +4093,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>45173.302083333336</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4132,7 +4131,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>45248.708333333336</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4170,7 +4169,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>45302.53125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4208,7 +4207,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45354.6875</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4246,7 +4245,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4284,7 +4283,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>45458.743055555555</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4322,7 +4321,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -4360,7 +4359,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>45455.284722222219</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4398,7 +4397,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4436,7 +4435,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>45002.489583333336</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -4474,7 +4473,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4512,7 +4511,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>45168.729166666664</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4550,7 +4549,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>45218.319444444445</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -4588,7 +4587,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4626,7 +4625,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>45418.725694444445</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -4664,7 +4663,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>45496.291666666664</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -4702,7 +4701,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>45422.739583333336</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -4742,8 +4741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,7 +4751,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4763,7 +4762,7 @@
       </c>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4996,10 +4995,10 @@
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>93</v>
       </c>
     </row>

--- a/2_Formulas_Functions/7_Text_Functions.xlsx
+++ b/2_Formulas_Functions/7_Text_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D707D5D-20BF-4807-B991-130EA48C94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B5D68-5AAA-4534-8755-FEC7F13B1F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,8 +540,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30:N30"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12">
-        <v>44971.640277777777</v>
+        <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="12">
-        <v>45055.40625</v>
+        <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -1888,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12">
-        <v>45128.729166666664</v>
+        <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -1914,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12">
-        <v>45173.302083333336</v>
+        <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="12">
-        <v>45248.708333333336</v>
+        <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -1966,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="12">
-        <v>45302.53125</v>
+        <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -1992,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12">
-        <v>45354.6875</v>
+        <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12">
-        <v>45408.340277777781</v>
+        <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>47</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12">
-        <v>45458.743055555555</v>
+        <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -2070,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="12">
-        <v>45480.607638888891</v>
+        <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>55</v>
@@ -2096,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="12">
-        <v>45455.284722222219</v>
+        <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -2122,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="12">
-        <v>44951.552083333336</v>
+        <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>57</v>
@@ -2148,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="12">
-        <v>45002.489583333336</v>
+        <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="12">
-        <v>45078.416666666664</v>
+        <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>53</v>
@@ -2200,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="12">
-        <v>45168.729166666664</v>
+        <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -2226,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="12">
-        <v>45218.319444444445</v>
+        <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -2252,7 +2252,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="12">
-        <v>45350.71875</v>
+        <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
@@ -2278,7 +2278,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="12">
-        <v>45418.725694444445</v>
+        <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -2304,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="12">
-        <v>45496.291666666664</v>
+        <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -2330,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="13">
-        <v>45422.739583333336</v>
+        <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>
@@ -2359,7 +2359,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12">
-        <v>44971.640277777777</v>
+        <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -2445,7 +2445,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="12">
-        <v>45055.40625</v>
+        <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -2475,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12">
-        <v>45128.729166666664</v>
+        <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -2505,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12">
-        <v>45173.302083333336</v>
+        <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -2535,7 +2535,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="12">
-        <v>45248.708333333336</v>
+        <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -2565,7 +2565,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="12">
-        <v>45302.53125</v>
+        <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -2595,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12">
-        <v>45354.6875</v>
+        <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12">
-        <v>45408.340277777781</v>
+        <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>47</v>
@@ -2655,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12">
-        <v>45458.743055555555</v>
+        <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="12">
-        <v>45480.607638888891</v>
+        <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>55</v>
@@ -2715,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="12">
-        <v>45455.284722222219</v>
+        <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -2745,7 +2745,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="12">
-        <v>44951.552083333336</v>
+        <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>57</v>
@@ -2775,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="12">
-        <v>45002.489583333336</v>
+        <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -2805,7 +2805,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="12">
-        <v>45078.416666666664</v>
+        <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>53</v>
@@ -2835,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="12">
-        <v>45168.729166666664</v>
+        <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -2865,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="12">
-        <v>45218.319444444445</v>
+        <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -2895,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="12">
-        <v>45350.71875</v>
+        <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
@@ -2925,7 +2925,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="12">
-        <v>45418.725694444445</v>
+        <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -2955,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="12">
-        <v>45496.291666666664</v>
+        <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -2985,7 +2985,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="13">
-        <v>45422.739583333336</v>
+        <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>
@@ -3013,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12">
-        <v>44971.640277777777</v>
+        <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -3131,7 +3131,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="12">
-        <v>45055.40625</v>
+        <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -3175,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12">
-        <v>45128.729166666664</v>
+        <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12">
-        <v>45173.302083333336</v>
+        <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -3263,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="12">
-        <v>45248.708333333336</v>
+        <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -3307,7 +3307,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="12">
-        <v>45302.53125</v>
+        <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -3348,7 +3348,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12">
-        <v>45354.6875</v>
+        <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12">
-        <v>45408.340277777781</v>
+        <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>47</v>
@@ -3430,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12">
-        <v>45458.743055555555</v>
+        <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -3471,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="12">
-        <v>45480.607638888891</v>
+        <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>55</v>
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="12">
-        <v>45455.284722222219</v>
+        <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -3553,7 +3553,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="12">
-        <v>44951.552083333336</v>
+        <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>57</v>
@@ -3594,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="12">
-        <v>45002.489583333336</v>
+        <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -3635,7 +3635,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="12">
-        <v>45078.416666666664</v>
+        <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>53</v>
@@ -3676,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="12">
-        <v>45168.729166666664</v>
+        <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -3717,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="12">
-        <v>45218.319444444445</v>
+        <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -3758,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="12">
-        <v>45350.71875</v>
+        <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
@@ -3799,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="12">
-        <v>45418.725694444445</v>
+        <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -3840,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="12">
-        <v>45496.291666666664</v>
+        <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -3881,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="13">
-        <v>45422.739583333336</v>
+        <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>
@@ -3921,7 +3921,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12">
-        <v>44971.640277777777</v>
+        <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -4018,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="12">
-        <v>45055.40625</v>
+        <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
@@ -4056,7 +4056,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12">
-        <v>45128.729166666664</v>
+        <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
@@ -4094,7 +4094,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12">
-        <v>45173.302083333336</v>
+        <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -4132,7 +4132,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="12">
-        <v>45248.708333333336</v>
+        <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -4170,7 +4170,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="12">
-        <v>45302.53125</v>
+        <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>47</v>
@@ -4208,7 +4208,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12">
-        <v>45354.6875</v>
+        <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12">
-        <v>45408.340277777781</v>
+        <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>47</v>
@@ -4284,7 +4284,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12">
-        <v>45458.743055555555</v>
+        <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -4322,7 +4322,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="12">
-        <v>45480.607638888891</v>
+        <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>55</v>
@@ -4360,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="12">
-        <v>45455.284722222219</v>
+        <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
@@ -4398,7 +4398,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="12">
-        <v>44951.552083333336</v>
+        <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>57</v>
@@ -4436,7 +4436,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="12">
-        <v>45002.489583333336</v>
+        <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -4474,7 +4474,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="12">
-        <v>45078.416666666664</v>
+        <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>53</v>
@@ -4512,7 +4512,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="12">
-        <v>45168.729166666664</v>
+        <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -4550,7 +4550,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="12">
-        <v>45218.319444444445</v>
+        <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -4588,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="12">
-        <v>45350.71875</v>
+        <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
@@ -4626,7 +4626,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="12">
-        <v>45418.725694444445</v>
+        <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -4664,7 +4664,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="12">
-        <v>45496.291666666664</v>
+        <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
@@ -4702,7 +4702,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="13">
-        <v>45422.739583333336</v>
+        <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>41</v>
